--- a/three-val-l-2.xlsx
+++ b/three-val-l-2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weath/Documents/F22-296/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AA615-4E59-F541-B035-51329FABB38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3C3A9-23BC-124C-AC55-52CD094C3D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="2620" windowWidth="28040" windowHeight="17440" xr2:uid="{227A10A8-2CB5-8248-915F-5BF5DBD6D4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,10 +44,10 @@
     <t>q</t>
   </si>
   <si>
-    <t>p -&gt; (q &amp; ~q)</t>
+    <t>¬p</t>
   </si>
   <si>
-    <t>~p</t>
+    <t>p → (q &amp; ¬q)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
